--- a/xlsx/区公所_intext.xlsx
+++ b/xlsx/区公所_intext.xlsx
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>行政區劃</t>
+    <t>行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3%E8%BD%84%E5%8D%80_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>縣轄區 (中華民國)</t>
+    <t>县辖区 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BF%E8%BE%96%E5%8C%BA</t>
